--- a/excluded_npa.xlsx
+++ b/excluded_npa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Surface2\kDrive\SMT\Msc2\Logistic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{09B76547-2B2D-454B-B74C-732194C62CD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97D5F5EA-641F-4FF4-A63E-AC22C36358A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{665E7537-CE28-4E27-AD64-65AC77A603EA}"/>
   </bookViews>
@@ -84,7 +84,18 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -414,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16BF347E-36CC-4F05-A4A6-97FB14B17F2A}">
-  <dimension ref="A1:C57"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -438,7 +449,7 @@
         <v>1800</v>
       </c>
       <c r="B2">
-        <v>1008</v>
+        <v>1122</v>
       </c>
       <c r="C2">
         <v>1148</v>
@@ -449,7 +460,7 @@
         <v>1096</v>
       </c>
       <c r="B3">
-        <v>1122</v>
+        <v>1037</v>
       </c>
       <c r="C3">
         <v>1142</v>
@@ -460,7 +471,7 @@
         <v>1095</v>
       </c>
       <c r="B4">
-        <v>1037</v>
+        <v>1042</v>
       </c>
       <c r="C4">
         <v>1141</v>
@@ -471,7 +482,7 @@
         <v>1009</v>
       </c>
       <c r="B5">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="C5">
         <v>1145</v>
@@ -482,7 +493,7 @@
         <v>1000</v>
       </c>
       <c r="B6">
-        <v>1040</v>
+        <v>1043</v>
       </c>
       <c r="C6">
         <v>1144</v>
@@ -493,7 +504,7 @@
         <v>1008</v>
       </c>
       <c r="B7">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="C7">
         <v>1128</v>
@@ -504,7 +515,7 @@
         <v>1020</v>
       </c>
       <c r="B8">
-        <v>1044</v>
+        <v>1038</v>
       </c>
       <c r="C8">
         <v>1136</v>
@@ -514,9 +525,6 @@
       <c r="A9">
         <v>1030</v>
       </c>
-      <c r="B9">
-        <v>1038</v>
-      </c>
       <c r="C9">
         <v>1169</v>
       </c>
@@ -551,220 +559,208 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15">
-        <v>1337</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16">
-        <v>1317</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17">
-        <v>1318</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18">
-        <v>1326</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19">
-        <v>1323</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20">
-        <v>1353</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21">
-        <v>1324</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22">
-        <v>1356</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23">
-        <v>1357</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24">
-        <v>1338</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25">
-        <v>1422</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26">
-        <v>1400</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A27">
-        <v>1434</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A28">
-        <v>1373</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A29">
-        <v>1372</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A30">
-        <v>1312</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A31">
-        <v>1302</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A32">
-        <v>1096</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A33">
-        <v>1429</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A34">
-        <v>1442</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A35">
-        <v>1441</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A36">
-        <v>1436</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A37">
-        <v>1405</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A38">
-        <v>1432</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A39">
-        <v>1433</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A40">
-        <v>1426</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A41">
-        <v>1375</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A42">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A43">
-        <v>1094</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A44">
-        <v>1091</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A45">
-        <v>1098</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A46">
-        <v>1097</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A47">
-        <v>1350</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A48">
-        <v>1260</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A49">
-        <v>1196</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A50">
-        <v>1180</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A51">
-        <v>1165</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A52">
-        <v>1110</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A53">
-        <v>1020</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A54">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A55">
-        <v>1163</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A56">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A57">
         <v>1028</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A10:C13 C2:C9 B2:B8 A2:A9 A14:A54 B14:C57">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>